--- a/new_ran_list.xlsx
+++ b/new_ran_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7785"/>
+    <workbookView windowWidth="25610" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,16 @@
     <t>岗位</t>
   </si>
   <si>
-    <t>前天真</t>
+    <t>后天真</t>
   </si>
   <si>
     <t>RAN.董事会</t>
   </si>
   <si>
-    <t>ran_dad2@ran-china.com</t>
+    <t>ran_htz@ran-china.com</t>
   </si>
   <si>
-    <t>大唐经理2</t>
+    <t>大唐经理666</t>
   </si>
 </sst>
 </file>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -91,19 +91,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -113,14 +160,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,92 +228,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,49 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,133 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,6 +441,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,6 +490,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,32 +528,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -523,169 +541,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,14 +1052,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.16666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.17" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.17" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.3" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.7" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.6" style="2" customWidth="1"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4">
-        <v>55</v>
+        <v>666</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1111,7 +1111,7 @@
     <sortCondition ref="A2:A2001"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="ran_dad2@ran-china.com" tooltip="mailto:ran_dad2@ran-china.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="ran_htz@ran-china.com" tooltip="mailto:ran_htz@ran-china.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>

--- a/new_ran_list.xlsx
+++ b/new_ran_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25610" windowHeight="10670"/>
+    <workbookView windowWidth="20400" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>工号</t>
   </si>
@@ -34,16 +34,7 @@
     <t>岗位</t>
   </si>
   <si>
-    <t>后天真</t>
-  </si>
-  <si>
-    <t>RAN.董事会</t>
-  </si>
-  <si>
-    <t>ran_htz@ran-china.com</t>
-  </si>
-  <si>
-    <t>大唐经理666</t>
+    <t>技术顾问</t>
   </si>
 </sst>
 </file>
@@ -51,12 +42,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -84,10 +75,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -97,10 +94,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -115,9 +141,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,110 +237,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,13 +247,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,31 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,13 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,115 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,13 +441,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,200 +521,182 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1052,14 +1050,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.17" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.16666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.1666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="42.3" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.7" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.6" style="2" customWidth="1"/>
@@ -1087,32 +1085,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>666</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1897452522</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F2001">
     <sortCondition ref="A2:A2001"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="ran_htz@ran-china.com" tooltip="mailto:ran_htz@ran-china.com"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
   <headerFooter/>

--- a/new_ran_list.xlsx
+++ b/new_ran_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>工号</t>
   </si>
@@ -33,21 +33,18 @@
   <si>
     <t>岗位</t>
   </si>
-  <si>
-    <t>技术顾问</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -81,7 +78,15 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,15 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -124,6 +129,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -133,61 +146,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +175,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -215,24 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,21 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,17 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +479,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,156 +523,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,7 +686,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1050,7 +1040,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1090,14 +1080,15 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:F2001">
     <sortCondition ref="A2:A2001"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" tooltip="mailto:qiang.zhang02@hand-china.com"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
   <headerFooter/>
